--- a/InputData/trans/EoVPwFE/Elasticity of Veh Price wrt Fuel Econ.xlsx
+++ b/InputData/trans/EoVPwFE/Elasticity of Veh Price wrt Fuel Econ.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23955" windowHeight="13095"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="23952" windowHeight="13092"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="2" r:id="rId2"/>
     <sheet name="EoVPwFE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Source:</t>
   </si>
@@ -63,15 +63,9 @@
     <t>Base LDV Cost</t>
   </si>
   <si>
-    <t>From Center for Automotive Research (2011)</t>
-  </si>
-  <si>
     <t>2016 Model Year Cost</t>
   </si>
   <si>
-    <t>In real dollars (no inflation)</t>
-  </si>
-  <si>
     <t>2025 Model Year Cost</t>
   </si>
   <si>
@@ -94,6 +88,36 @@
   </si>
   <si>
     <t>Vehicle Price wrt Fuel Econ</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>The EPA and NHTSA document does not explicitly specify its curency year, and</t>
+  </si>
+  <si>
+    <t>it discusses costs in years 2017-2025, so we assume it is using currency of the year</t>
+  </si>
+  <si>
+    <t>of the document's publication, which is 2012.  Hence, no adjustment is needed.</t>
+  </si>
+  <si>
+    <t>The Center for Automotive Research's data was taken from a 2010 Automotive Yearbook</t>
+  </si>
+  <si>
+    <t>and therefore likely is in 2010 dollars.</t>
+  </si>
+  <si>
+    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>Currency Year</t>
+  </si>
+  <si>
+    <t>From Center for Automotive Research (2010$)</t>
+  </si>
+  <si>
+    <t>In 2012$ dollars</t>
   </si>
 </sst>
 </file>
@@ -104,7 +128,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +159,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -150,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -158,13 +205,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -181,11 +280,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
+    <cellStyle name="Body: normal cell" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="4"/>
+    <cellStyle name="Footnotes: top row" xfId="8"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parent row" xfId="7"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Table title" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,22 +592,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,59 +615,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -578,10 +731,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -593,7 +746,7 @@
         <v>35.5</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,7 +757,7 @@
         <v>54.5</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,7 +769,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,38 +781,38 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
-        <f>B4</f>
-        <v>23186</v>
+        <f>B4*About!A24</f>
+        <v>24461.23</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <f>B5+B3</f>
-        <v>24986</v>
+        <v>26261.23</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6">
         <f>(B2-B1)/B1</f>
@@ -668,20 +821,20 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6">
         <f>(B6-B5)/B5</f>
-        <v>7.7633054429397053E-2</v>
+        <v>7.358583358236688E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7">
         <f>B9/B8</f>
-        <v>0.14505123327597871</v>
+        <v>0.13748932064073813</v>
       </c>
     </row>
   </sheetData>
@@ -698,23 +851,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8">
         <f>Calculations!B11</f>
-        <v>0.14505123327597871</v>
+        <v>0.13748932064073813</v>
       </c>
     </row>
   </sheetData>
